--- a/data/step7/range_criteria_template_sample.xlsx
+++ b/data/step7/range_criteria_template_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\MCA\data\step7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8D076-8E2C-4458-BE3D-70994B9CECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A43C5-5C82-4AC0-8B9B-2C361F472F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>file_name</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>exclusive_range</t>
+  </si>
+  <si>
+    <t>&gt;2000</t>
+  </si>
+  <si>
+    <t>&gt;1800,&lt;2000</t>
+  </si>
+  <si>
+    <t>&gt;0,&lt;1</t>
+  </si>
+  <si>
+    <t>&gt;1,&lt;5</t>
+  </si>
+  <si>
+    <t>&gt;5,&lt;10</t>
+  </si>
+  <si>
+    <t>&gt;1500,&lt;1800</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>&lt;1500</t>
   </si>
 </sst>
 </file>
@@ -173,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,7 +505,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,10 +581,22 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -577,10 +613,22 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>30</v>
